--- a/sputnik/personal/ee/9ee.xlsx
+++ b/sputnik/personal/ee/9ee.xlsx
@@ -16,26 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">К оплате </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,7 +33,28 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>начислены пени 226 д.-1205,62</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>начислены пени 226 д.</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>долг</t>
   </si>
 </sst>
 </file>
@@ -53,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -114,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -127,7 +136,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -139,6 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,45 +456,51 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -500,11 +516,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>454</v>
@@ -512,6 +530,8 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -534,11 +554,18 @@
         <f>PRODUCT(D4,E4)</f>
         <v>4756.5</v>
       </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>5334.6</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5334.6</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>700</v>
@@ -554,18 +581,24 @@
         <f>D5*E5</f>
         <v>578.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43431</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="10">
+        <v>1205.6199999999999</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -573,7 +606,17 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM(G4:G6)</f>
+        <v>6540.22</v>
+      </c>
+      <c r="H7" s="10">
+        <f>SUM(H4:H6)</f>
+        <v>5334.6</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -581,90 +624,14 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f>SUM(H7,-G7)</f>
+        <v>-1205.6199999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/9ee.xlsx
+++ b/sputnik/personal/ee/9ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,9 @@
       <c r="A6" s="4">
         <v>43431</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
         <v>10</v>

--- a/sputnik/personal/ee/9ee.xlsx
+++ b/sputnik/personal/ee/9ee.xlsx
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,20 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -123,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -145,10 +159,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,7 +479,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,11 +574,11 @@
         <f>PRODUCT(D4,E4)</f>
         <v>4756.5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
         <v>5334.6</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>5334.6</v>
       </c>
     </row>
@@ -581,26 +601,32 @@
         <f>D5*E5</f>
         <v>578.1</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="12">
         <v>43431</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="10">
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>1205.6199999999999</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -611,11 +637,11 @@
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>SUM(G4:G6)</f>
         <v>6540.22</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f>SUM(H4:H6)</f>
         <v>5334.6</v>
       </c>
@@ -629,8 +655,8 @@
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <f>SUM(H7,-G7)</f>
         <v>-1205.6199999999999</v>
       </c>

--- a/sputnik/personal/ee/9ee.xlsx
+++ b/sputnik/personal/ee/9ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -102,12 +102,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,15 +166,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,60 +615,111 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>43431</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="12">
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="12">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="14">
         <v>1205.6199999999999</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
+      <c r="A7" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5729</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C4</f>
+        <v>3629</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="6">
+        <f>PRODUCT(D7,E7)</f>
+        <v>17092.59</v>
       </c>
       <c r="G7" s="9">
-        <f>SUM(G4:G6)</f>
-        <v>6540.22</v>
+        <f>SUM(F7,F8)</f>
+        <v>24036.239999999998</v>
       </c>
       <c r="H7" s="9">
-        <f>SUM(H4:H6)</f>
-        <v>5334.6</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3423</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C5</f>
+        <v>2723</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>6943.65</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM(G4:G8)</f>
+        <v>30576.46</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H4:H8)</f>
+        <v>28934.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <f>SUM(H7,-G7)</f>
-        <v>-1205.6199999999999</v>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14">
+        <f>SUM(H9,-G9)</f>
+        <v>-1641.8600000000006</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/9ee.xlsx
+++ b/sputnik/personal/ee/9ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>долг</t>
+  </si>
+  <si>
+    <t>начислены пени 372 д.</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -179,6 +182,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -486,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,42 +696,117 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
+      <c r="A9" s="4">
+        <v>44415</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8078</v>
+      </c>
+      <c r="D9" s="15">
+        <f>SUM(C9,-C7)</f>
+        <v>2349</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F9" s="6">
+        <f>PRODUCT(D9,E9)</f>
+        <v>11651.039999999999</v>
       </c>
       <c r="G9" s="9">
-        <f>SUM(G4:G8)</f>
-        <v>30576.46</v>
+        <f>SUM(F9,F10)</f>
+        <v>14414.119999999999</v>
       </c>
       <c r="H9" s="9">
-        <f>SUM(H4:H8)</f>
-        <v>28934.6</v>
+        <v>14416</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4454</v>
+      </c>
+      <c r="D10" s="15">
+        <f>SUM(C10,-C8)</f>
+        <v>1031</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>2763.0800000000004</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44415</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>5362.08</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G4:G11)</f>
+        <v>50352.66</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H4:H11)</f>
+        <v>43350.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14">
-        <f>SUM(H9,-G9)</f>
-        <v>-1641.8600000000006</v>
+      <c r="G13" s="9"/>
+      <c r="H13" s="14">
+        <f>SUM(H12,-G12)</f>
+        <v>-7002.0600000000049</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
